--- a/LUSSISADTeam10Web/Content/supplier.xlsx
+++ b/LUSSISADTeam10Web/Content/supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AD_Documents\supplier csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8E1EDE-5427-4169-B3BC-0150AACABAC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66DE7FD-9AA1-45B5-B7C7-3F71BDE4783A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{760D98E7-B376-4BC8-ACC0-18CBC8D3E835}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>gstregno</t>
   </si>
   <si>
-    <t>Shark Supplies</t>
-  </si>
-  <si>
-    <t>shark@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr Tan Ah kg</t>
+    <t>Power Supplies</t>
+  </si>
+  <si>
+    <t>power@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr Joker</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="C2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LUSSISADTeam10Web/Content/supplier.xlsx
+++ b/LUSSISADTeam10Web/Content/supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AD_Documents\supplier csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66DE7FD-9AA1-45B5-B7C7-3F71BDE4783A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677C11CE-F1F7-4592-A83D-1E5F7CBA3EBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{760D98E7-B376-4BC8-ACC0-18CBC8D3E835}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>gstregno</t>
   </si>
   <si>
-    <t>Power Supplies</t>
-  </si>
-  <si>
-    <t>power@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr Joker</t>
+    <t>Zin Supplier</t>
+  </si>
+  <si>
+    <t>zinsupplier@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr Thet</t>
   </si>
 </sst>
 </file>

--- a/LUSSISADTeam10Web/Content/supplier.xlsx
+++ b/LUSSISADTeam10Web/Content/supplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AD_Documents\supplier csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677C11CE-F1F7-4592-A83D-1E5F7CBA3EBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D739EA-96E8-4B38-B305-0CE1251D5469}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{760D98E7-B376-4BC8-ACC0-18CBC8D3E835}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>gstregno</t>
   </si>
   <si>
-    <t>Zin Supplier</t>
-  </si>
-  <si>
-    <t>zinsupplier@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr Thet</t>
+    <t>Ugly CSS</t>
+  </si>
+  <si>
+    <t>Chit Su Shin</t>
+  </si>
+  <si>
+    <t>chitsushine@u.nus.edu</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="C2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,13 +447,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>84456472</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5625565</v>

--- a/LUSSISADTeam10Web/Content/supplier.xlsx
+++ b/LUSSISADTeam10Web/Content/supplier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AD_Documents\supplier csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aungm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D739EA-96E8-4B38-B305-0CE1251D5469}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF31F50E-BF5E-40DD-85EB-519369148861}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{760D98E7-B376-4BC8-ACC0-18CBC8D3E835}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7788" xr2:uid="{760D98E7-B376-4BC8-ACC0-18CBC8D3E835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,35 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>name</t>
+    <t>zinminhtet@u.nus.edu</t>
   </si>
   <si>
-    <t>email</t>
+    <t>Mr. ZHM</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>Contact name</t>
   </si>
   <si>
-    <t>contact name</t>
+    <t>GST Reg No</t>
   </si>
   <si>
-    <t>gstregno</t>
+    <t>Tree Top</t>
   </si>
   <si>
-    <t>Ugly CSS</t>
+    <t>Phone Number</t>
   </si>
   <si>
-    <t>Chit Su Shin</t>
+    <t>Email Address</t>
   </si>
   <si>
-    <t>chitsushine@u.nus.edu</t>
+    <t>Company Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -88,14 +108,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,58 +529,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B04D9F5-C0CA-47F7-B5F8-14E52F57B4D2}">
-  <dimension ref="C2:G3"/>
+  <dimension ref="C1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="1" spans="3:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="8">
+        <v>84456472</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>84456472</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>5625565</v>
       </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{B7D09A35-3882-4CBD-90B5-BB5FF0AFDBAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>